--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>399.1339834467364</v>
+        <v>841.5686820744935</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.47398344673753</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.68883997447806</v>
+        <v>5.206834251576654</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.68883997447806</v>
+        <v>4.957912867326331</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.3199999999989</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.34</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454999</v>
+        <v>23.76072200618813</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>22.15891053163818</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33.75054662682655</v>
+        <v>42.28226196994633</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30.92507822290428</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.29065144902805</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.46828465688021</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1066,6 +1066,76 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>221.13</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>219.485</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>206.225</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>224.12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>225.435</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>174.085</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>174.26</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>159.575</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>172.595</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>176.17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>202.86</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>203.34</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>217.055</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>207.51</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>199.0450000000008</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>221.13</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>219.485</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>206.225</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>224.12</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>225.435</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>202.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>217.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.0450000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.485</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.225000000000001</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>24.12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.435</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.859999999999928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.340000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.05499999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.509999999999792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1735,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1955,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2051,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2062,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2073,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2084,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2095,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2106,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2117,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2128,12 +2198,23 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
